--- a/Dividing_MSC_Run.sig_0.05.fgsea_pathway_genes.xlsx
+++ b/Dividing_MSC_Run.sig_0.05.fgsea_pathway_genes.xlsx
@@ -15,17 +15,15 @@
     <sheet name="HYPOXIA" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="INTERFERON_GAMMA_RESPONSE" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="MITOTIC_SPINDLE" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="MYC_TARGETS_V1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="MYOGENESIS" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="OXIDATIVE_PHOSPHORYLATION" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="P53_PATHWAY" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="UV_RESPONSE_DN" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MYOGENESIS" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="OXIDATIVE_PHOSPHORYLATION" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="UV_RESPONSE_DN" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t xml:space="preserve">X1</t>
   </si>
@@ -639,69 +637,6 @@
     <t xml:space="preserve">EZR</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSPD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRSF3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSBP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDAC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNRNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNRNPA2B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAM120A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCT5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNRNPA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSP90AB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSMD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RRM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF4G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF1AX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIF2S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNRNPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERBP1</t>
-  </si>
-  <si>
     <t xml:space="preserve">TPM3</t>
   </si>
   <si>
@@ -814,48 +749,6 @@
   </si>
   <si>
     <t xml:space="preserve">ATP5PO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM4SF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSC22D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PITPNC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NINJ1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RACK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHLDA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPL36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPHX1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDKN2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPD52L1</t>
   </si>
   <si>
     <t xml:space="preserve">TFPI</t>
@@ -1522,662 +1415,182 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0000000000000466730583077396</v>
+        <v>0.00000000000103665296537787</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.555285072680648</v>
+        <v>-0.993430557283206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.484</v>
+        <v>0.991</v>
       </c>
       <c r="E2" t="n">
-        <v>0.816</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000000000984381472768535</v>
+        <v>0.0000000218640476927847</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000000000000253454285444091</v>
+        <v>0.000000000000000000000141604208229692</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.559641733645039</v>
+        <v>-1.12233533922614</v>
       </c>
       <c r="D3" t="n">
-        <v>0.995</v>
+        <v>0.991</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00000000534560433430133</v>
+        <v>0.00000000000000000298657435577244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>0.000000000317271315071667</v>
+        <v>0.00000000000000000000000000000000000000000000000000952970274617531</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.58063059923201</v>
+        <v>-1.28464729838849</v>
       </c>
       <c r="D4" t="n">
-        <v>0.963</v>
+        <v>0.995</v>
       </c>
       <c r="E4" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00000669156930617653</v>
+        <v>0.000000000000000000000000000000000000000000000200990960619583</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00000000141146668768414</v>
+        <v>0.0000000000000000000000000000000230640849792518</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.584515960241615</v>
+        <v>-1.30893547405775</v>
       </c>
       <c r="D5" t="n">
-        <v>0.963</v>
+        <v>0.977</v>
       </c>
       <c r="E5" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0000297692439099462</v>
+        <v>0.0000000000000000000000000004864446162974</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0000000283584376789856</v>
+        <v>0.00000000000000000000000000000000000000000000437884823498459</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.600721619244063</v>
+        <v>-1.39978163267386</v>
       </c>
       <c r="D6" t="n">
-        <v>0.742</v>
+        <v>0.982</v>
       </c>
       <c r="E6" t="n">
-        <v>0.959</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000598107809087485</v>
+        <v>0.00000000000000000000000000000000000000009235428812406</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" t="n">
-        <v>0.000000000000993030012367224</v>
+        <v>0.000000000000000000000000000000000000000120070786899576</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.621804042339736</v>
+        <v>-1.80854926467074</v>
       </c>
       <c r="D7" t="n">
-        <v>0.903</v>
+        <v>0.203</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0000000209439959908371</v>
+        <v>0.00000000000000000000000000000000000253241296649896</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0000000000000112503597995734</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000177849781394962</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.633340009701912</v>
+        <v>-2.51468644545065</v>
       </c>
       <c r="D8" t="n">
-        <v>0.894</v>
+        <v>0.995</v>
       </c>
       <c r="E8" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.000000000237281338532803</v>
+        <v>0.000000000000000000000000000000000000000000000000000000375102973940115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0000000000000424011622757632</v>
+        <v>0.000000000000000000000000000000000000000000000000000054066708484631</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.642748472932813</v>
+        <v>-3.06898287280949</v>
       </c>
       <c r="D9" t="n">
-        <v>0.991</v>
+        <v>0.903</v>
       </c>
       <c r="E9" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000000000894282913558122</v>
+        <v>0.00000000000000000000000000000000000000000000000114032094864935</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="B10" t="n">
-        <v>0.000000000226611188905371</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000455773344919041</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.64709867065675</v>
+        <v>-3.64398302805584</v>
       </c>
       <c r="D10" t="n">
-        <v>0.972</v>
+        <v>0.166</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00000477945658520319</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.00000000000000581846183172386</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.682534135597621</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.876</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.000000000122717178492888</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.00000000000000000449274990060505</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.691529999693754</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0000000000000947565881536611</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.000000000000064722018781191</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.704321735982855</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0000000013650520981141</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.00000000000000000219364107565282</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.713883530358176</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.862</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0000000000000462660839265936</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.000000000000000737251750442118</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.723941883825121</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.885</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.939</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0000000000155493766685747</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.00000000000000000799655014633124</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.731362998135995</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.000000000000168655239136272</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.00000000000000326957281783973</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.745300897167333</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0000000000689585603010578</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.0000000000000000011254901210058</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.746824423523152</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.774</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.939</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0000000000000237377121421332</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.0000000000000304920139764519</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.748185464722156</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.837</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.000000000643107066777347</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.0000000000000000085450567688729</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.759203229936188</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.959</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.000000000000180223792312298</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.00000000000000000738333903503329</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.779332527672099</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.645</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.939</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.000000000000155722003587887</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0000000000000000118943935236846</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.779958543605491</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.000000000000250864653808032</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.0000000000000000133752887099213</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-0.784481095022476</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.954</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.00000000000028209821418095</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.000000000000000000000603702400750548</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.827367351186116</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.922</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.0000000000000000127326873342298</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.0000000000000000000231169892689698</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.839818378124615</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.000000000000000487560420671842</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>220</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.000000000000000000000000373762352976329</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-0.840445248057708</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.00000000000000000000788302178662376</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.0000000000000000000000236157365278738</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.853518127016669</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.000000000000000000498079499109387</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.00000000000000000000000102872431327069</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.91534050628089</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.0000000000000000000216968244911921</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>222</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.00000000000000000000301595796275007</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.923031035275379</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.0000000000000000636095693923616</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>223</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.000000000000000000000021882512767794</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.929196437688496</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.949</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.939</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.000000000000000000461524076785543</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.00000000000000000000000157893611834551</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.96314172430608</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.0000000000000000000333013416720251</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.000000000000000000000000206604005283582</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-1.04918606579633</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.00000000000000000000435748507543603</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.0000000000000000000000000000000934698948280163</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-1.07075141946496</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.825</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.00000000000000000000000000197137355181769</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>224</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.00000000000000000000000000000000166408933828719</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-1.08730811016679</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.0000000000000000000000000000350973082338151</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000961271561768749</v>
       </c>
     </row>
   </sheetData>
@@ -2216,182 +1629,722 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00000000000103665296537787</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000320427849282597</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.993430557283206</v>
+        <v>1.53263084967815</v>
       </c>
       <c r="D2" t="n">
-        <v>0.991</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0000000218640476927847</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000675814376921926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000000000000000000000141604208229692</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000386768912608721</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.12233533922614</v>
+        <v>1.31634129457744</v>
       </c>
       <c r="D3" t="n">
-        <v>0.991</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00000000000000000298657435577244</v>
+        <v>0.000000000000000000000000000000000000000000000000000815734313583054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000952970274617531</v>
+        <v>0.000000000000000000000000000000000470813940142602</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.28464729838849</v>
+        <v>1.14458313945613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.755</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000000000000000000000000000000000000000000000200990960619583</v>
+        <v>0.00000000000000000000000000000992993681154761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0000000000000000000000000000000230640849792518</v>
+        <v>0.000000000000000000000000000000000000000416789659974037</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.30893547405775</v>
+        <v>1.13572162746238</v>
       </c>
       <c r="D5" t="n">
-        <v>0.977</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0000000000000000000000000004864446162974</v>
+        <v>0.00000000000000000000000000000000000879051071851242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00000000000000000000000000000000000000000000437884823498459</v>
+        <v>0.000000000000000000000000000000000799020881768285</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.39978163267386</v>
+        <v>1.07119399598434</v>
       </c>
       <c r="D6" t="n">
-        <v>0.982</v>
+        <v>0.995</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00000000000000000000000000000000000000009235428812406</v>
+        <v>0.0000000000000000000000000000168521494173749</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B7" t="n">
-        <v>0.000000000000000000000000000000000000000120070786899576</v>
+        <v>0.00000000000000000000000000000788798706030796</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.80854926467074</v>
+        <v>0.814974491397467</v>
       </c>
       <c r="D7" t="n">
-        <v>0.203</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00000000000000000000000000000000000253241296649896</v>
+        <v>0.000000000000000000000000166365535088955</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000177849781394962</v>
+        <v>0.000000000000000000000000000149074223896132</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.51468644545065</v>
+        <v>0.808140310749322</v>
       </c>
       <c r="D8" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000375102973940115</v>
+        <v>0.00000000000000000000000314412445619333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="B9" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000054066708484631</v>
+        <v>0.0000000000000000000000000000000000000824760349719663</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.06898287280949</v>
+        <v>0.803252973085562</v>
       </c>
       <c r="D9" t="n">
-        <v>0.903</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00000000000000000000000000000000000000000000000114032094864935</v>
+        <v>0.00000000000000000000000000000000173950205359374</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="B10" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000455773344919041</v>
+        <v>0.0000000000000000000000000000000586473171882059</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.64398302805584</v>
+        <v>0.795930527243914</v>
       </c>
       <c r="D10" t="n">
-        <v>0.166</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000961271561768749</v>
+        <v>0.00000000000000000000000000123693056681645</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.000000000000000367001195914322</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.792587816080405</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.00000000000774042222302896</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.00000000000000000000000518739170092021</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.77870756525123</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.939</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.000000000000000000109407278364108</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0000000000000514666923582521</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.744138722556994</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.00000000108548400852789</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.00000000000000000000000000158573248145802</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.734093199657748</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.000000000000000000000033444683766431</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0000000000000000459635022101353</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.716130043676</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.816</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.000000000000969416225113964</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.00000000000156985017740149</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.701877434148869</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.939</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0000000331097100915748</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.000000000000000969612010153531</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.698123305910338</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0000000000204500869061481</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0000000000000000280798888126754</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.696962596711139</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.939</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.000000000000592232934948137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.00000000000000000035347067350249</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.696170809524923</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.00000000000000745504997484101</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.000000000000172357846003806</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.693628962325423</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.00000000363519933006626</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.000000000000000000000929533825539706</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.663189741727812</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0000000000000000196047979144579</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0000000000000000000172273913115759</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.641531139347581</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.000000000000000363342910152447</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0000000000199211033099549</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.640757751691603</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.939</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.000000420155989910259</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.00000000000000000277847128080738</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.639176479414158</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0000000000000586007377835084</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.000000000000246264150143763</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6308651713902</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0000000051939571906821</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.00000000000000609768140434528</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.626228380293059</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.000000000128606198499046</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.000000000000001214508673437</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.587229129441817</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0000000000256152024314597</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.000000000023783472753354</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.565209401237296</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.00000050161722384099</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.000000000000218789023586191</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.563131691685639</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00000000461447929645636</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0000000395789795779611</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.511476478473982</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.000834760258278777</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0000000000000215153313397149</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.509096572207328</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.000000000453779853285927</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.00000000682460981689608</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.503722220720971</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.000143937845648155</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.00000185468574550384</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.489642685414364</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0391171770584215</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0000000346709905417117</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.486023997587754</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.000731245861515242</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0000000000000173538358124003</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.467596652832648</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.000000000366009751119336</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0000000124235920715963</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.453118326666474</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.000262025980382038</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.000000652829529770723</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.450843944025928</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0137688276123943</v>
       </c>
     </row>
   </sheetData>
@@ -2430,1175 +2383,47 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000320427849282597</v>
+        <v>0.00000000000000321772840511153</v>
       </c>
       <c r="C2" t="n">
-        <v>1.53263084967815</v>
+        <v>-0.60125003587621</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.415</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.837</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000675814376921926</v>
+        <v>0.0000000000678651097922074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000386768912608721</v>
+        <v>0.000000000000406299376096662</v>
       </c>
       <c r="C3" t="n">
-        <v>1.31634129457744</v>
+        <v>-0.609747991169789</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.318</v>
       </c>
       <c r="E3" t="n">
-        <v>0.98</v>
+        <v>0.796</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000815734313583054</v>
+        <v>0.0000000085692601412547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.000000000000000000000000000000000470813940142602</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.14458313945613</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.755</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00000000000000000000000000000992993681154761</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.000000000000000000000000000000000000000416789659974037</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.13572162746238</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.00000000000000000000000000000000000879051071851242</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.000000000000000000000000000000000799020881768285</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.07119399598434</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0000000000000000000000000000168521494173749</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.00000000000000000000000000000788798706030796</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.814974491397467</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.000000000000000000000000166365535088955</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.000000000000000000000000000149074223896132</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.808140310749322</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.00000000000000000000000314412445619333</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0000000000000000000000000000000000000824760349719663</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.803252973085562</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.00000000000000000000000000000000173950205359374</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0000000000000000000000000000000586473171882059</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.795930527243914</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.00000000000000000000000000123693056681645</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.000000000000000367001195914322</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.792587816080405</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.986</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.898</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.00000000000774042222302896</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.00000000000000000000000518739170092021</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.77870756525123</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.939</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.000000000000000000109407278364108</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.0000000000000514666923582521</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.744138722556994</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.837</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.00000000108548400852789</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.00000000000000000000000000158573248145802</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.734093199657748</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.000000000000000000000033444683766431</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.0000000000000000459635022101353</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.716130043676</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.986</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.816</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.000000000000969416225113964</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.00000000000156985017740149</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.701877434148869</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.939</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0000000331097100915748</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.000000000000000969612010153531</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.698123305910338</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.878</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0000000000204500869061481</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.0000000000000000280798888126754</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.696962596711139</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.939</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.000000000000592232934948137</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
         <v>244</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.00000000000000000035347067350249</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.696170809524923</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.00000000000000745504997484101</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>245</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.000000000000172357846003806</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.693628962325423</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.959</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.00000000363519933006626</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.000000000000000000000929533825539706</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.663189741727812</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.0000000000000000196047979144579</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>247</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0000000000000000000172273913115759</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.641531139347581</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.000000000000000363342910152447</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>248</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.0000000000199211033099549</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.640757751691603</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.939</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.000000420155989910259</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>249</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.00000000000000000277847128080738</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.639176479414158</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.0000000000000586007377835084</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>250</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.000000000000246264150143763</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.6308651713902</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.918</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.0000000051939571906821</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>251</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.00000000000000609768140434528</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.626228380293059</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.918</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.000000000128606198499046</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>252</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.000000000000001214508673437</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.587229129441817</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0000000000256152024314597</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>253</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.000000000023783472753354</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.565209401237296</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.986</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.959</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.00000050161722384099</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>254</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.000000000000218789023586191</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.563131691685639</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.00000000461447929645636</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>255</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.0000000395789795779611</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.511476478473982</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.000834760258278777</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>256</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.0000000000000215153313397149</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.509096572207328</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.000000000453779853285927</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>257</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.00000000682460981689608</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.503722220720971</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.898</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.000143937845648155</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>258</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.00000185468574550384</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.489642685414364</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.825</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.0391171770584215</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>259</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.0000000346709905417117</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.486023997587754</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.000731245861515242</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>260</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.0000000000000173538358124003</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.467596652832648</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.000000000366009751119336</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>261</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.0000000124235920715963</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.453118326666474</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.837</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.000262025980382038</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>262</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.000000652829529770723</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.450843944025928</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.986</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.0137688276123943</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.00000000000000000000000000000000000000000112231245514552</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.48528349549483</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0000000000000000000000000000000000000236706919914742</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.000000000000000000000000000000000000986914908336504</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.88424326376212</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.986</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0000000000000000000000000000000208150223317252</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0000000000000000000592242494008672</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.34085533666937</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.935</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.449</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00000000000000124909864411369</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.000000000000000000000000000000805899929339105</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.30399254303689</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.986</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0000000000000000000000000169972354096911</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.000000000000000000000000000431407436380839</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.16274874547233</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.899</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.163</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.00000000000000000000000909881424070828</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0000000000000000000000962321584251222</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.00611330184299</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.926</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.00000000000000000202963245334425</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0000000000000000784096910420932</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.963374044443332</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.918</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.00000000000165373879376879</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0000000000000514666923582521</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.744138722556994</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.837</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.00000000108548400852789</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.00000000000156985017740149</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.701877434148869</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.939</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0000000331097100915748</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>270</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.00000000000000000000000000421393469417964</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.685047808134502</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0000000000000000000000888760966349427</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.000000000235687110977708</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.652610938731274</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.954</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.00000497087685763083</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>272</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.0000000000000000000942825940859773</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.547821588078534</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.00000000000000198851419186735</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.00000000000111592723286328</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.528078662742207</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.728</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.224</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0000000235360212683195</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.0000000099054946089964</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.523566512314122</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.705</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.000208916786798343</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>275</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.000000851463887825232</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.511938428103404</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.866</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.017958224858122</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>276</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.000000255764696251048</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.508844860303391</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.654</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.00539433320863085</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>259</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.0000000346709905417117</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.486023997587754</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.000731245861515242</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.00000000000000321772840511153</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.60125003587621</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.837</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0000000000678651097922074</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.000000000000406299376096662</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.609747991169789</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.318</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0000000085692601412547</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>279</v>
       </c>
       <c r="B4" t="n">
         <v>0.000000000000000000180931163250033</v>
@@ -3638,7 +2463,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="B6" t="n">
         <v>0.00000000000082961880627637</v>
@@ -3658,7 +2483,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="B7" t="n">
         <v>0.0000000000000181195176547129</v>
@@ -3678,7 +2503,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="B8" t="n">
         <v>0.00000000000000184914334657684</v>
@@ -3698,7 +2523,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="B9" t="n">
         <v>0.000000000000000245120941155858</v>
@@ -3718,7 +2543,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="B10" t="n">
         <v>0.000000000000000115760703340874</v>
@@ -3738,7 +2563,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="B11" t="n">
         <v>0.000000670708741414749</v>
@@ -3758,7 +2583,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="B12" t="n">
         <v>0.00000000000000000667000640494663</v>
@@ -3798,7 +2623,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="B14" t="n">
         <v>0.00000000000000000000000000190443485987344</v>
@@ -3838,7 +2663,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="B16" t="n">
         <v>0.00000000000000000000000000000000000143429297818205</v>
@@ -3898,7 +2723,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="B19" t="n">
         <v>0.0000000000000000002097925181216</v>
